--- a/six_month_growth.xlsx
+++ b/six_month_growth.xlsx
@@ -438,7 +438,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.168701521699025</v>
+        <v>0.2265703122580645</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -446,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.569705012158981</v>
+        <v>0.9618436836568807</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.09787072603503222</v>
+        <v>-0.07177940569395012</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -462,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1575903847738594</v>
+        <v>0.1707246407880916</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -470,7 +470,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.02436764493322923</v>
+        <v>-0.05288458692561851</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -478,7 +478,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1615280496681825</v>
+        <v>0.1442786517875693</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -486,7 +486,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2584369346162664</v>
+        <v>0.2871835932519578</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4252764961596505</v>
+        <v>0.415278694692947</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -502,7 +502,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.233883918329892</v>
+        <v>0.3400701130857502</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -510,7 +510,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0799454114054293</v>
+        <v>0.1070026141135048</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -518,7 +518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6448599059862339</v>
+        <v>0.6769140147330748</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -526,7 +526,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1783188897730812</v>
+        <v>0.1501698301368181</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -534,7 +534,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2847877695599887</v>
+        <v>0.2772030023524328</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -542,7 +542,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4578778095001775</v>
+        <v>0.4359446812914555</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -550,7 +550,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3353527435839113</v>
+        <v>0.3855752196832611</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -558,7 +558,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1813317911480737</v>
+        <v>0.2053663734702503</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -566,7 +566,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2065464971533351</v>
+        <v>0.2047305658360387</v>
       </c>
     </row>
   </sheetData>
